--- a/carteira_servicos_MBP/n8n/gopoúva_fora_do_prazo.xlsx
+++ b/carteira_servicos_MBP/n8n/gopoúva_fora_do_prazo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Número OS</t>
   </si>
@@ -37,25 +37,37 @@
     <t>Prazo</t>
   </si>
   <si>
-    <t xml:space="preserve"> RUA PEDRO MARCOS BARBOSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RUA PAULO CASTALDELLI</t>
-  </si>
-  <si>
-    <t>VAZAMENTO DE ÁGUA LEITO PAVIMENTADO</t>
-  </si>
-  <si>
-    <t>REPOR PASSEIO ADJACENTE CIMENTADO INV</t>
+    <t xml:space="preserve"> RUA ALBERTO BAGGIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA SOLDADO CLOVIS ROSA DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA JOAO EVANGELISTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA MADRE DE DEUS DE MINAS</t>
+  </si>
+  <si>
+    <t>VAZAMENTO DE ÁGUA NÃO VISÍVEL RAMAL</t>
+  </si>
+  <si>
+    <t>REPOR ASFALTO INV</t>
+  </si>
+  <si>
+    <t>REPOR BLOQUETE</t>
   </si>
   <si>
     <t>Gopoúva</t>
   </si>
   <si>
-    <t>VAZAMENTO DE ÁGUA</t>
-  </si>
-  <si>
-    <t>PA CIM; PI CIM; RET ENTULHO; BASE P/CAPA (12H)</t>
+    <t>VAZAMENTO NÃO VISÍVEL</t>
+  </si>
+  <si>
+    <t>CAPA ASF; CAPA ASF ECOL; ASFALTO; ASFALTO ECOL; SINALIZAÇÃO</t>
+  </si>
+  <si>
+    <t>GUIA; SARJETA; CONCRETO; BLOQUETE; MURO; GRAMA; PARALELO; TROCA DE SOLO</t>
   </si>
   <si>
     <t>Fora do prazo</t>
@@ -416,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,48 +459,94 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2524806665</v>
+        <v>2526885048</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>37.59</v>
+        <v>98.13</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>2524909638</v>
+        <v>2526886491</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>97.79000000000001</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>2526598232</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>72.26000000000001</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>2526886401</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>13.42</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+      <c r="D5" t="s">
         <v>14</v>
+      </c>
+      <c r="E5">
+        <v>74.03</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
